--- a/020-内部設計/023-クラス仕様書/013_商品検索/DAO/クラス仕様書(CategoryDAO.java) .xlsx
+++ b/020-内部設計/023-クラス仕様書/013_商品検索/DAO/クラス仕様書(CategoryDAO.java) .xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27932"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42A48D96-E172-4109-8C37-8A90E61D5068}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EDBD913-32F8-4EC0-8605-877FEC4EC58D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="727" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="727" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="クラス仕様" sheetId="1" r:id="rId1"/>
@@ -11996,8 +11996,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CC06377-A46C-4B52-B89D-ADB9C61BEC62}">
   <dimension ref="A1:IY57"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A8" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A17" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -26594,8 +26594,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{046F6F74-CDB4-4E52-80B4-EF22A07E00F2}">
   <dimension ref="A1:JA60"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AA39" sqref="AA39"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
